--- a/baseline_v3/us_result.xlsx
+++ b/baseline_v3/us_result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuzheyang/Library/Mobile Documents/3L68KQB4HG~com~readdle~CommonDocuments/Documents/CUHKSZ/Research Learning/RL-code/baseline/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuzheyang/Library/Mobile Documents/3L68KQB4HG~com~readdle~CommonDocuments/Documents/CUHKSZ/Research Learning/RL-code/baseline_v3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA4BA55-DF79-944C-B255-345A82901395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE347820-F759-7E4C-BF57-028098AF3032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="20160" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -142,11 +142,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -161,17 +176,24 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,7 +503,7 @@
   <dimension ref="A1:T105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A3:A5"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -492,489 +514,599 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="22.5" customHeight="1">
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
     </row>
     <row r="2" spans="1:20" ht="20.25" customHeight="1">
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9" t="s">
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9" t="s">
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9" t="s">
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
       <c r="T2" s="1"/>
     </row>
     <row r="3" spans="1:20" ht="21.75" customHeight="1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="10">
         <v>9.0890000000000004</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="10">
         <v>11.847</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="10">
         <v>1.149</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="10">
         <v>9.0890000000000004</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="10">
         <v>11.847</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="10">
         <v>1.149</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="10">
         <v>9.0890000000000004</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="10">
         <v>11.847</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="10">
         <v>1.149</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="10">
         <v>6.5190000000000001</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="10">
         <v>8.6310000000000002</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="10">
         <v>1.284</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="10">
         <v>6.5190000000000001</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="10">
         <v>8.6310000000000002</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="10">
         <v>1.284</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q3" s="10">
         <v>6.5190000000000001</v>
       </c>
-      <c r="R3" s="7">
+      <c r="R3" s="10">
         <v>8.6310000000000002</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="10">
         <v>1.284</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="21.75" customHeight="1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="10">
         <v>7.7949999999999999</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="10">
         <v>10.468</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="10">
         <v>1.2110000000000001</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="10">
         <v>8.1229999999999993</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="10">
         <v>10.824</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="10">
         <v>1.224</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="10">
         <v>8.4789999999999992</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="10">
         <v>11.237</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="10">
         <v>1.216</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="10">
         <v>5.5609999999999999</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="10">
         <v>7.6559999999999997</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="10">
         <v>1.129</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="10">
         <v>5.8170000000000002</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="10">
         <v>7.9249999999999998</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="10">
         <v>1.1399999999999999</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="10">
         <v>6.165</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R4" s="10">
         <v>8.3040000000000003</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="10">
         <v>1.129</v>
       </c>
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20" ht="21.75" customHeight="1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="10">
         <v>10.507999999999999</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="10">
         <v>13.894</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="10">
         <v>2.4359999999999999</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="10">
         <v>10.481</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="10">
         <v>13.863</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="10">
         <v>2.419</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="10">
         <v>10.599</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="10">
         <v>14.02</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="10">
         <v>2.48</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="10">
         <v>7.6070000000000002</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="10">
         <v>10.548999999999999</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="10">
         <v>1.133</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="10">
         <v>7.5869999999999997</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="10">
         <v>10.551</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="10">
         <v>1.123</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="10">
         <v>7.6529999999999996</v>
       </c>
-      <c r="R5" s="7">
+      <c r="R5" s="10">
         <v>10.643000000000001</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S5" s="10">
         <v>1.1419999999999999</v>
       </c>
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" ht="21.75" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
+      <c r="B6" s="10">
+        <v>8.1750000000000007</v>
+      </c>
+      <c r="C6" s="10">
+        <v>10.946999999999999</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="E6" s="10">
+        <v>8.4870000000000001</v>
+      </c>
+      <c r="F6" s="10">
+        <v>11.271000000000001</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1.2210000000000001</v>
+      </c>
+      <c r="H6" s="10">
+        <v>8.7360000000000007</v>
+      </c>
+      <c r="I6" s="10">
+        <v>11.56</v>
+      </c>
+      <c r="J6" s="10">
+        <v>1.21</v>
+      </c>
+      <c r="K6" s="10">
+        <v>5.9619999999999997</v>
+      </c>
+      <c r="L6" s="10">
+        <v>8.1310000000000002</v>
+      </c>
+      <c r="M6" s="10">
+        <v>1.0920000000000001</v>
+      </c>
+      <c r="N6" s="10">
+        <v>6.24</v>
+      </c>
+      <c r="O6" s="10">
+        <v>8.4130000000000003</v>
+      </c>
+      <c r="P6" s="10">
+        <v>1.081</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>6.4290000000000003</v>
+      </c>
+      <c r="R6" s="10">
+        <v>8.6509999999999998</v>
+      </c>
+      <c r="S6" s="10">
+        <v>1.042</v>
+      </c>
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20" ht="21.75" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
+      <c r="B7" s="10">
+        <v>7.617</v>
+      </c>
+      <c r="C7" s="10">
+        <v>10.457000000000001</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1.1930000000000001</v>
+      </c>
+      <c r="E7" s="10">
+        <v>7.8159999999999998</v>
+      </c>
+      <c r="F7" s="10">
+        <v>10.689</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1.2070000000000001</v>
+      </c>
+      <c r="H7" s="10">
+        <v>8.0649999999999995</v>
+      </c>
+      <c r="I7" s="10">
+        <v>10.958</v>
+      </c>
+      <c r="J7" s="10">
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="K7" s="10">
+        <v>4.5650000000000004</v>
+      </c>
+      <c r="L7" s="10">
+        <v>7.2190000000000003</v>
+      </c>
+      <c r="M7" s="10">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="N7" s="10">
+        <v>4.6360000000000001</v>
+      </c>
+      <c r="O7" s="10">
+        <v>7.3209999999999997</v>
+      </c>
+      <c r="P7" s="10">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>4.7389999999999999</v>
+      </c>
+      <c r="R7" s="10">
+        <v>7.4139999999999997</v>
+      </c>
+      <c r="S7" s="10">
+        <v>0.94099999999999995</v>
+      </c>
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" ht="21.75" customHeight="1">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
+      <c r="B8" s="10">
+        <v>7.8949999999999996</v>
+      </c>
+      <c r="C8" s="10">
+        <v>10.644</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1.208</v>
+      </c>
+      <c r="E8" s="10">
+        <v>8.0470000000000006</v>
+      </c>
+      <c r="F8" s="10">
+        <v>10.816000000000001</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1.208</v>
+      </c>
+      <c r="H8" s="10">
+        <v>8.266</v>
+      </c>
+      <c r="I8" s="10">
+        <v>11.055999999999999</v>
+      </c>
+      <c r="J8" s="10">
+        <v>1.153</v>
+      </c>
+      <c r="K8" s="10">
+        <v>4.7489999999999997</v>
+      </c>
+      <c r="L8" s="10">
+        <v>7.149</v>
+      </c>
+      <c r="M8" s="10">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="N8" s="10">
+        <v>4.819</v>
+      </c>
+      <c r="O8" s="10">
+        <v>7.2210000000000001</v>
+      </c>
+      <c r="P8" s="10">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>4.9269999999999996</v>
+      </c>
+      <c r="R8" s="10">
+        <v>7.335</v>
+      </c>
+      <c r="S8" s="10">
+        <v>0.90800000000000003</v>
+      </c>
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" ht="21.75" customHeight="1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3">
-        <v>8.9120000000000008</v>
-      </c>
-      <c r="C9" s="3">
-        <v>11.601000000000001</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="E9" s="3">
-        <v>9.1280000000000001</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="B9" s="10">
+        <v>7.6109999999999998</v>
+      </c>
+      <c r="C9" s="10">
+        <v>10.468999999999999</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1.246</v>
+      </c>
+      <c r="E9" s="10">
+        <v>7.7569999999999997</v>
+      </c>
+      <c r="F9" s="10">
+        <v>10.656000000000001</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1.2470000000000001</v>
+      </c>
+      <c r="H9" s="10">
+        <v>7.9889999999999999</v>
+      </c>
+      <c r="I9" s="10">
+        <v>10.91</v>
+      </c>
+      <c r="J9" s="10">
+        <v>1.2210000000000001</v>
+      </c>
+      <c r="K9" s="10">
+        <v>4.5780000000000003</v>
+      </c>
+      <c r="L9" s="10">
+        <v>7.2309999999999999</v>
+      </c>
+      <c r="M9" s="10">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="N9" s="10">
+        <v>4.6319999999999997</v>
+      </c>
+      <c r="O9" s="10">
+        <v>7.2789999999999999</v>
+      </c>
+      <c r="P9" s="10">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>4.7809999999999997</v>
+      </c>
+      <c r="R9" s="10">
+        <v>7.3719999999999999</v>
+      </c>
+      <c r="S9" s="10">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" ht="21.75" customHeight="1">
+      <c r="A10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="12">
+        <v>8.4540000000000006</v>
+      </c>
+      <c r="C10" s="12">
+        <v>10.861000000000001</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="12">
+        <v>8.7080000000000002</v>
+      </c>
+      <c r="F10" s="12">
+        <v>11.436</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="12">
+        <v>9.6180000000000003</v>
+      </c>
+      <c r="I10" s="12">
+        <v>12.05</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="12">
+        <v>8.7889999999999997</v>
+      </c>
+      <c r="L10" s="12">
+        <v>11.381</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="12">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="O10" s="12">
+        <v>11.612</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>9.7750000000000004</v>
+      </c>
+      <c r="R10" s="12">
+        <v>12.007</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" ht="21.75" customHeight="1">
+      <c r="A11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="12">
+        <v>8.468</v>
+      </c>
+      <c r="C11" s="12">
+        <v>11.209</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="E11" s="12">
+        <v>8.7759999999999998</v>
+      </c>
+      <c r="F11" s="12">
+        <v>11.526999999999999</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="H11" s="12">
+        <v>9.1539999999999999</v>
+      </c>
+      <c r="I11" s="12">
         <v>11.898</v>
       </c>
-      <c r="G9" s="3">
-        <v>0.98</v>
-      </c>
-      <c r="H9" s="3">
-        <v>9.4649999999999999</v>
-      </c>
-      <c r="I9" s="3">
-        <v>12.183999999999999</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0.99299999999999999</v>
-      </c>
-      <c r="K9" s="3">
-        <v>9.1509999999999998</v>
-      </c>
-      <c r="L9" s="3">
-        <v>11.87</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0.85599999999999998</v>
-      </c>
-      <c r="N9" s="3">
-        <v>9.3539999999999992</v>
-      </c>
-      <c r="O9" s="3">
-        <v>12.069000000000001</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0.871</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>9.609</v>
-      </c>
-      <c r="R9" s="3">
-        <v>12.317</v>
-      </c>
-      <c r="S9" s="3">
-        <v>0.878</v>
-      </c>
-      <c r="T9" s="1"/>
-    </row>
-    <row r="10" spans="1:20" ht="21.75" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3">
-        <v>8.4540000000000006</v>
-      </c>
-      <c r="C10" s="3">
-        <v>10.861000000000001</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="3">
-        <v>8.7080000000000002</v>
-      </c>
-      <c r="F10" s="3">
-        <v>11.436</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="3">
-        <v>9.6180000000000003</v>
-      </c>
-      <c r="I10" s="3">
-        <v>12.05</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="3">
-        <v>8.7889999999999997</v>
-      </c>
-      <c r="L10" s="3">
-        <v>11.381</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N10" s="3">
-        <v>9.1199999999999992</v>
-      </c>
-      <c r="O10" s="3">
-        <v>11.612</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>9.7750000000000004</v>
-      </c>
-      <c r="R10" s="3">
-        <v>12.007</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="T10" s="1"/>
-    </row>
-    <row r="11" spans="1:20" ht="21.75" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3">
-        <v>8.468</v>
-      </c>
-      <c r="C11" s="3">
-        <v>11.209</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="E11" s="3">
-        <v>8.7759999999999998</v>
-      </c>
-      <c r="F11" s="3">
-        <v>11.526999999999999</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="H11" s="3">
-        <v>9.1539999999999999</v>
-      </c>
-      <c r="I11" s="3">
-        <v>11.898</v>
-      </c>
-      <c r="J11" s="3">
+      <c r="J11" s="12">
         <v>0.93799999999999994</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="12">
         <v>8.2149999999999999</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="12">
         <v>11.101000000000001</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="12">
         <v>0.81699999999999995</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="12">
         <v>8.5310000000000006</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="12">
         <v>11.474</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="12">
         <v>0.83599999999999997</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11" s="12">
         <v>8.8729999999999993</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R11" s="12">
         <v>11.843</v>
       </c>
-      <c r="S11" s="3">
+      <c r="S11" s="12">
         <v>0.82399999999999995</v>
       </c>
       <c r="T11" s="1"/>
